--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_ospf_test_ni_ospf_subinterface_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_ospf_test_ni_ospf_subinterface_logs.xlsx
@@ -505,33 +505,63 @@
                     &lt;filter&gt;
                         &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
                         &lt;interface&gt;
-                        &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
+                        &lt;name&gt;GigabitEthernet0/3/0&lt;/name&gt;
                         &lt;/interface&gt;
                         &lt;/interfaces&gt;
                     &lt;/filter&gt;
 -------------------
-</t>
+                    &lt;filter&gt;
+                        &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+                        &lt;network-instance&gt;
+                        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+                        &lt;/network-instance&gt;
+                        &lt;/network-instances&gt;
+                    &lt;/filter&gt;
+                    </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:6bf0dffd-2f87-4e34-a7f5-6ae0ce101e51"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:f877265e-cf8a-4f8f-b1d5-76e7ad7532e0"&gt;
   &lt;data&gt;
     &lt;interfaces&gt;
       &lt;interface&gt;
-        &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
+        &lt;name&gt;GigabitEthernet0/3/0&lt;/name&gt;
         &lt;config&gt;
-          &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
+          &lt;name&gt;GigabitEthernet0/3/0&lt;/name&gt;
           &lt;type&gt;ianaift:ethernetCsmacd&lt;/type&gt;
           &lt;loopback-mode&gt;false&lt;/loopback-mode&gt;
+          &lt;description&gt;Test if_config_description 2&lt;/description&gt;
           &lt;enabled&gt;true&lt;/enabled&gt;
-          &lt;tpid&gt;oc-vlan-types:TPID_0X8100&lt;/tpid&gt;
+          &lt;tpid&gt;oc-vlan-types:TPID_0X9200&lt;/tpid&gt;
         &lt;/config&gt;
         &lt;subinterfaces&gt;
           &lt;subinterface&gt;
             &lt;index&gt;0&lt;/index&gt;
             &lt;config&gt;
               &lt;index&gt;0&lt;/index&gt;
+              &lt;description&gt;Test if_config_description 2&lt;/description&gt;
+              &lt;enabled&gt;true&lt;/enabled&gt;
+            &lt;/config&gt;
+            &lt;ipv4&gt;
+              &lt;addresses&gt;
+                &lt;address&gt;
+                  &lt;ip&gt;192.168.0.1&lt;/ip&gt;
+                  &lt;config&gt;
+                    &lt;ip&gt;192.168.0.1&lt;/ip&gt;
+                    &lt;prefix-length&gt;24&lt;/prefix-length&gt;
+                  &lt;/config&gt;
+                &lt;/address&gt;
+              &lt;/addresses&gt;
+              &lt;config&gt;
+                &lt;enabled&gt;true&lt;/enabled&gt;
+              &lt;/config&gt;
+            &lt;/ipv4&gt;
+          &lt;/subinterface&gt;
+          &lt;subinterface&gt;
+            &lt;index&gt;600&lt;/index&gt;
+            &lt;config&gt;
+              &lt;index&gt;600&lt;/index&gt;
               &lt;enabled&gt;true&lt;/enabled&gt;
             &lt;/config&gt;
             &lt;ipv4&gt;
@@ -540,10 +570,200 @@
               &lt;/config&gt;
             &lt;/ipv4&gt;
           &lt;/subinterface&gt;
+        &lt;/subinterfaces&gt;
+      &lt;/interface&gt;
+    &lt;/interfaces&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
+-------------------
+&lt;rpc-reply message-id="urn:uuid:ebb9b1eb-88f0-4396-a944-2e5a68e7a636"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+            &lt;name&gt;22&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
+            &lt;/config&gt;
+            &lt;ospfv2&gt;
+              &lt;global&gt;
+                &lt;config&gt;
+                  &lt;router-id&gt;172.16.1.3&lt;/router-id&gt;
+                &lt;/config&gt;
+              &lt;/global&gt;
+            &lt;/ospfv2&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
+</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;edit-config&gt;
+  &lt;target&gt;
+      &lt;candidate/&gt;
+  &lt;/target&gt;
+  &lt;config&gt;
+    &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
+      &lt;interface&gt;
+        &lt;name&gt;GigabitEthernet0/3/0&lt;/name&gt;
+        &lt;subinterfaces&gt;
           &lt;subinterface&gt;
-            &lt;index&gt;100&lt;/index&gt;
-            &lt;config&gt;
-              &lt;index&gt;100&lt;/index&gt;
+            &lt;index&gt;600&lt;/index&gt;
+            &lt;config&gt;
+              &lt;index&gt;600&lt;/index&gt;
+            &lt;/config&gt;
+          &lt;/subinterface&gt;
+        &lt;/subinterfaces&gt;
+      &lt;/interface&gt;
+    &lt;/interfaces&gt;
+  &lt;/config&gt;
+&lt;/edit-config&gt; 
+-------------------
+&lt;edit-config&gt;
+  &lt;target&gt;
+      &lt;candidate/&gt;
+  &lt;/target&gt;
+  &lt;config&gt;
+    &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+      &lt;network-instance&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+            &lt;type xmlns:oc-ni-types="http://openconfig.net/yang/network-instance-types"&gt;oc-ni-types:L3VRF&lt;/type&gt;
+          &lt;/config&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+            &lt;name&gt;22&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
+            &lt;/config&gt;
+            &lt;ospfv2&gt;
+              &lt;areas&gt;
+                &lt;area&gt;
+                  &lt;identifier&gt;0.0.0.0&lt;/identifier&gt;
+                  &lt;config&gt;
+                    &lt;identifier&gt;0.0.0.0&lt;/identifier&gt;
+                  &lt;/config&gt;
+                  &lt;interfaces&gt;
+                    &lt;interface&gt;
+                      &lt;id&gt;GigabitEthernet0/3/0&lt;/id&gt;
+                      &lt;config&gt;
+                        &lt;id&gt;GigabitEthernet0/3/0&lt;/id&gt;
+                      &lt;/config&gt;
+                      &lt;interface-ref&gt;
+                        &lt;config&gt;
+                          &lt;interface&gt;GigabitEthernet0/3/0&lt;/interface&gt;
+                          &lt;subinterface&gt;600&lt;/subinterface&gt;
+                        &lt;/config&gt;
+                      &lt;/interface-ref&gt;
+                    &lt;/interface&gt;
+                  &lt;/interfaces&gt;
+                &lt;/area&gt;
+              &lt;/areas&gt;
+            &lt;/ospfv2&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/config&gt;
+&lt;/edit-config&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:7bd9123d-861a-43d3-b618-d653909a8706"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:4f9635fe-bfd8-488d-82ba-19e5b7f27d03" nc-ext:flow-id="256"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+-------------------
+</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:d5102e90-af77-4b7f-82e4-d7eff0b3c702"&gt;
+  &lt;data&gt;
+    &lt;interfaces&gt;
+      &lt;interface&gt;
+        &lt;name&gt;GigabitEthernet0/3/0&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;GigabitEthernet0/3/0&lt;/name&gt;
+          &lt;type&gt;ianaift:ethernetCsmacd&lt;/type&gt;
+          &lt;loopback-mode&gt;false&lt;/loopback-mode&gt;
+          &lt;description&gt;Test if_config_description 2&lt;/description&gt;
+          &lt;enabled&gt;true&lt;/enabled&gt;
+          &lt;tpid&gt;oc-vlan-types:TPID_0X9200&lt;/tpid&gt;
+        &lt;/config&gt;
+        &lt;subinterfaces&gt;
+          &lt;subinterface&gt;
+            &lt;index&gt;0&lt;/index&gt;
+            &lt;config&gt;
+              &lt;index&gt;0&lt;/index&gt;
+              &lt;description&gt;Test if_config_description 2&lt;/description&gt;
+              &lt;enabled&gt;true&lt;/enabled&gt;
+            &lt;/config&gt;
+            &lt;ipv4&gt;
+              &lt;addresses&gt;
+                &lt;address&gt;
+                  &lt;ip&gt;192.168.0.1&lt;/ip&gt;
+                  &lt;config&gt;
+                    &lt;ip&gt;192.168.0.1&lt;/ip&gt;
+                    &lt;prefix-length&gt;24&lt;/prefix-length&gt;
+                  &lt;/config&gt;
+                &lt;/address&gt;
+              &lt;/addresses&gt;
+              &lt;config&gt;
+                &lt;enabled&gt;true&lt;/enabled&gt;
+              &lt;/config&gt;
+            &lt;/ipv4&gt;
+          &lt;/subinterface&gt;
+          &lt;subinterface&gt;
+            &lt;index&gt;600&lt;/index&gt;
+            &lt;config&gt;
+              &lt;index&gt;600&lt;/index&gt;
               &lt;enabled&gt;true&lt;/enabled&gt;
             &lt;/config&gt;
             &lt;ipv4&gt;
@@ -561,104 +781,6 @@
 </t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;edit-config&gt;
-  &lt;target&gt;
-      &lt;candidate/&gt;
-  &lt;/target&gt;
-  &lt;config&gt;
-    &lt;interfaces xmlns="http://openconfig.net/yang/interfaces"&gt;
-      &lt;interface&gt;
-        &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-        &lt;subinterfaces&gt;
-          &lt;subinterface&gt;
-            &lt;index&gt;600&lt;/index&gt;
-            &lt;config&gt;
-              &lt;index&gt;600&lt;/index&gt;
-            &lt;/config&gt;
-          &lt;/subinterface&gt;
-        &lt;/subinterfaces&gt;
-      &lt;/interface&gt;
-    &lt;/interfaces&gt;
-  &lt;/config&gt;
-&lt;/edit-config&gt; 
--------------------
-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:133d8034-c648-4369-88e2-bc039e848afb"&gt;
-  &lt;ok/&gt;
-&lt;/rpc-reply&gt;
- - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:d461b000-06b6-4a4e-a244-72e9ed35c1c4" nc-ext:flow-id="86"&gt;
-  &lt;ok/&gt;
-&lt;/rpc-reply&gt;
--------------------
-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:e052953f-d3f0-49ee-8410-c5e7c80be09c"&gt;
-  &lt;data&gt;
-    &lt;interfaces&gt;
-      &lt;interface&gt;
-        &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-        &lt;config&gt;
-          &lt;name&gt;GigabitEthernet0/5/3&lt;/name&gt;
-          &lt;type&gt;ianaift:ethernetCsmacd&lt;/type&gt;
-          &lt;loopback-mode&gt;false&lt;/loopback-mode&gt;
-          &lt;enabled&gt;true&lt;/enabled&gt;
-          &lt;tpid&gt;oc-vlan-types:TPID_0X8100&lt;/tpid&gt;
-        &lt;/config&gt;
-        &lt;subinterfaces&gt;
-          &lt;subinterface&gt;
-            &lt;index&gt;0&lt;/index&gt;
-            &lt;config&gt;
-              &lt;index&gt;0&lt;/index&gt;
-              &lt;enabled&gt;true&lt;/enabled&gt;
-            &lt;/config&gt;
-            &lt;ipv4&gt;
-              &lt;config&gt;
-                &lt;enabled&gt;true&lt;/enabled&gt;
-              &lt;/config&gt;
-            &lt;/ipv4&gt;
-          &lt;/subinterface&gt;
-          &lt;subinterface&gt;
-            &lt;index&gt;100&lt;/index&gt;
-            &lt;config&gt;
-              &lt;index&gt;100&lt;/index&gt;
-              &lt;enabled&gt;true&lt;/enabled&gt;
-            &lt;/config&gt;
-            &lt;ipv4&gt;
-              &lt;config&gt;
-                &lt;enabled&gt;true&lt;/enabled&gt;
-              &lt;/config&gt;
-            &lt;/ipv4&gt;
-          &lt;/subinterface&gt;
-          &lt;subinterface&gt;
-            &lt;index&gt;600&lt;/index&gt;
-            &lt;config&gt;
-              &lt;index&gt;600&lt;/index&gt;
-              &lt;enabled&gt;true&lt;/enabled&gt;
-            &lt;/config&gt;
-            &lt;ipv4&gt;
-              &lt;config&gt;
-                &lt;enabled&gt;true&lt;/enabled&gt;
-              &lt;/config&gt;
-            &lt;/ipv4&gt;
-          &lt;/subinterface&gt;
-        &lt;/subinterfaces&gt;
-      &lt;/interface&gt;
-    &lt;/interfaces&gt;
-  &lt;/data&gt;
-&lt;/rpc-reply&gt;
--------------------
-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
